--- a/PPG/Grupos de Pesquisa.xlsx
+++ b/PPG/Grupos de Pesquisa.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377A765-4284-B84E-8302-1BD6DA3DC2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07C822-AA67-C64B-BE3B-C811D936667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="860" windowWidth="24900" windowHeight="15540" xr2:uid="{BDD23CB5-6C8A-0648-A5B8-16B62254B891}"/>
   </bookViews>
   <sheets>
-    <sheet name="GP.ativos" sheetId="4" r:id="rId1"/>
-    <sheet name="GP.inativos" sheetId="5" r:id="rId2"/>
-    <sheet name="DGP" sheetId="3" r:id="rId3"/>
+    <sheet name="Membros" sheetId="3" r:id="rId1"/>
+    <sheet name="GP.ativos" sheetId="4" r:id="rId2"/>
+    <sheet name="GP.inativos" sheetId="5" r:id="rId3"/>
+    <sheet name="GP.externos" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Agnaldo José Lopes</t>
   </si>
@@ -134,6 +135,18 @@
   </si>
   <si>
     <t>http://dgp.cnpq.br/dgp/espelhogrupo/6275564297217717</t>
+  </si>
+  <si>
+    <t>Pesquisa em Dor</t>
+  </si>
+  <si>
+    <t>http://pesquisaemdor.com.br</t>
+  </si>
+  <si>
+    <t>https://geprex.com</t>
+  </si>
+  <si>
+    <t>Grupo de Estudos em Prescrição do Exercício</t>
   </si>
 </sst>
 </file>
@@ -249,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,47 +276,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,7 +312,135 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5AC2CDB5-4A86-3445-8E28-1194D4509AE5}"/>
     <cellStyle name="Porcentagem 2" xfId="4" xr:uid="{14AC3AB1-F64D-8644-8EBB-6F6328983BF0}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -617,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,46 +1031,337 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614F789-184F-6440-B245-C1C271E64D8E}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0D55-450A-E84B-B1CD-6F43B8B08018}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="28" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:E12 B13:C14">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C15">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C16">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",B16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614F789-184F-6440-B245-C1C271E64D8E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="13"/>
-    <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="52.5" style="10"/>
+    <col min="1" max="1" width="52.5" style="12"/>
+    <col min="2" max="2" width="47.33203125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="52.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -952,21 +1369,17 @@
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -979,50 +1392,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D470F4F3-89BA-9B44-BEAB-15E2512C841F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="13"/>
-    <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="52.5" style="10"/>
+    <col min="1" max="1" width="52.5" style="12"/>
+    <col min="2" max="2" width="50.5" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="52.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1032,293 +1439,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0D55-450A-E84B-B1CD-6F43B8B08018}">
-  <dimension ref="A1:E16"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369AD5CD-AC7E-BF44-8C76-C26A5153FF3E}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="28" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="52.5" style="12"/>
+    <col min="2" max="2" width="50.5" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="52.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
-  <conditionalFormatting sqref="B2:E12 B13:C14">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",B15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0D2AA1E3-710B-BD49-ABDB-1768FBB8AD9B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{72B57506-6B3D-5C4D-AEF7-5D100CDC60B2}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/PPG/Grupos de Pesquisa.xlsx
+++ b/PPG/Grupos de Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07C822-AA67-C64B-BE3B-C811D936667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48E099-0E3F-384C-918C-1F23F6DDCCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="860" windowWidth="24900" windowHeight="15540" xr2:uid="{BDD23CB5-6C8A-0648-A5B8-16B62254B891}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Agnaldo José Lopes</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Docente</t>
   </si>
   <si>
-    <t>Alex Souto Maior Alves</t>
-  </si>
-  <si>
     <t>Grupo de Pesquisa em Reabilitação Neuromusculoesquelética UNISUAM</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Inovação e Tecnologia Biomédica</t>
   </si>
   <si>
-    <t>Pablo Rodrigo de Oliveira Silva</t>
-  </si>
-  <si>
     <t>Grupo de Pesquisa em Fisioterapia da UNISUAM</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>Grupo de Estudos em Prescrição do Exercício</t>
+  </si>
+  <si>
+    <t>Laura Alice Santos de Oliveira</t>
   </si>
 </sst>
 </file>
@@ -283,19 +280,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,135 +309,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5AC2CDB5-4A86-3445-8E28-1194D4509AE5}"/>
     <cellStyle name="Porcentagem 2" xfId="4" xr:uid="{14AC3AB1-F64D-8644-8EBB-6F6328983BF0}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <border>
         <left style="thin">
@@ -743,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1031,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB0D55-450A-E84B-B1CD-6F43B8B08018}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,16 +924,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1074,70 +943,68 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1150,7 +1017,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1159,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1173,10 +1040,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1185,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1196,20 +1063,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1217,42 +1084,31 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
     <sortCondition ref="A2:A12"/>
   </sortState>
-  <conditionalFormatting sqref="B2:E12 B13:C14">
+  <conditionalFormatting sqref="B13:C13 B2:E12">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",B2)))</formula>
     </cfRule>
@@ -1260,23 +1116,23 @@
       <formula>NOT(ISERROR(SEARCH("2o líder",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B15:C15">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="1o líder">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="2o líder">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="2o líder">
       <formula>NOT(ISERROR(SEARCH("2o líder",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
+  <conditionalFormatting sqref="D13">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",D13)))</formula>
     </cfRule>
@@ -1284,23 +1140,23 @@
       <formula>NOT(ISERROR(SEARCH("2o líder",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="1o líder">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="2o líder">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="2o líder">
       <formula>NOT(ISERROR(SEARCH("2o líder",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
+  <conditionalFormatting sqref="E13">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",E13)))</formula>
     </cfRule>
@@ -1308,20 +1164,20 @@
       <formula>NOT(ISERROR(SEARCH("2o líder",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1o líder">
+      <formula>NOT(ISERROR(SEARCH("1o líder",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2o líder">
+      <formula>NOT(ISERROR(SEARCH("2o líder",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1o líder">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1o líder">
       <formula>NOT(ISERROR(SEARCH("1o líder",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2o líder">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="2o líder">
       <formula>NOT(ISERROR(SEARCH("2o líder",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1o líder">
-      <formula>NOT(ISERROR(SEARCH("1o líder",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="2o líder">
-      <formula>NOT(ISERROR(SEARCH("2o líder",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1343,42 +1199,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1407,18 +1263,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,26 +1310,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">

--- a/PPG/Grupos de Pesquisa.xlsx
+++ b/PPG/Grupos de Pesquisa.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B078D82-3D07-234C-BD48-6C6C4084F15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83051DBA-2BE7-434C-A63C-8D1B401212E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="860" windowWidth="24900" windowHeight="15540" xr2:uid="{BDD23CB5-6C8A-0648-A5B8-16B62254B891}"/>
   </bookViews>
   <sheets>
     <sheet name="Ativos" sheetId="4" r:id="rId1"/>
     <sheet name="Inativos" sheetId="5" r:id="rId2"/>
-    <sheet name="Externos" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Grupo de Pesquisa em Reabilitação Neuromusculoesquelética UNISUAM</t>
   </si>
@@ -83,6 +82,12 @@
   </si>
   <si>
     <t>Grupo de Estudos em Prescrição do Exercício</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -141,7 +146,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -156,23 +160,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,27 +176,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -524,63 +511,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614F789-184F-6440-B245-C1C271E64D8E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="52.5" style="2"/>
+    <col min="1" max="1" width="79.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="52.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{32C37DEE-2F70-EB46-B535-C50669098D16}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D94C3D69-40D2-6241-86AE-F2B64A2C9C90}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C3D320FA-A9A6-0B43-B8D7-9864B723B489}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{D40CE520-4852-0447-B030-7763E3A17407}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{32C37DEE-2F70-EB46-B535-C50669098D16}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D94C3D69-40D2-6241-86AE-F2B64A2C9C90}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C3D320FA-A9A6-0B43-B8D7-9864B723B489}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D40CE520-4852-0447-B030-7763E3A17407}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{72B57506-6B3D-5C4D-AEF7-5D100CDC60B2}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{0D2AA1E3-710B-BD49-ABDB-1768FBB8AD9B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -588,98 +615,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D470F4F3-89BA-9B44-BEAB-15E2512C841F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="52.5" style="2"/>
+    <col min="1" max="1" width="48.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="52.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{83EFE0B5-7001-2447-93DE-0BA91A63F66B}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369AD5CD-AC7E-BF44-8C76-C26A5153FF3E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="46.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="52.5" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0D2AA1E3-710B-BD49-ABDB-1768FBB8AD9B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{72B57506-6B3D-5C4D-AEF7-5D100CDC60B2}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83EFE0B5-7001-2447-93DE-0BA91A63F66B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Grupos de Pesquisa.xlsx
+++ b/PPG/Grupos de Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83051DBA-2BE7-434C-A63C-8D1B401212E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B886B8A-8706-B246-A72D-5C354DF8146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="860" windowWidth="24900" windowHeight="15540" xr2:uid="{BDD23CB5-6C8A-0648-A5B8-16B62254B891}"/>
   </bookViews>
@@ -81,13 +81,13 @@
     <t>https://geprex.com</t>
   </si>
   <si>
-    <t>Grupo de Estudos em Prescrição do Exercício</t>
-  </si>
-  <si>
     <t>País</t>
   </si>
   <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>GEPrEx – Grupo de Estudos em Prescrição do Exercício – UERJ</t>
   </si>
 </sst>
 </file>
@@ -181,16 +181,16 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -215,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614F789-184F-6440-B245-C1C271E64D8E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
